--- a/HW7_Mark_Robinson_UG/results/data.xlsx
+++ b/HW7_Mark_Robinson_UG/results/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\ece483\HW7_Mark_Robinson_UG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\ece483\HW7_Mark_Robinson_UG\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E872AA0-9DC1-4819-986B-BEE0AF2D47DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA675B1-36EA-4636-B76C-604E8558F85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89741C47-2A8E-4687-8D30-2768D6135830}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>---------------------------------</t>
   </si>
@@ -147,69 +147,12 @@
     <t>Initial State Probabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.1308
-    0.0390
-    0.3106
-    0.0074
-    0.0228
-    0.0850
-    0.1514
-    0.1004
-    0.1526</t>
-  </si>
-  <si>
     <t>Observation Probabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.5937    0.1803    0.2261
-    0.5396    0.0539    0.4065
-    0.5126    0.3835    0.1039
-    0.2874    0.3465    0.3661
-    0.6509    0.1982    0.1509
-    0.1052    0.7939    0.1009
-    0.9356    0.0240    0.0404
-    0.7319    0.1913    0.0768
-    0.8271    0.0424    0.1306</t>
-  </si>
-  <si>
-    <t>Transition Probabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.0047    0.2217    0.1156    0.0272    0.1330    0.0451    0.2062    0.1900    0.0565
-    0.1672    0.0203    0.1629    0.0608    0.0745    0.0693    0.0510    0.1572    0.2369
-    0.1545    0.1476    0.1242    0.0683    0.0579    0.0019    0.1268    0.0779    0.2408
-    0.2185    0.0620    0.0048    0.1613    0.2291    0.0205    0.0912    0.1044    0.1081
-    0.0436    0.0365    0.0620    0.1171    0.1856    0.0993    0.1600    0.0574    0.2386
-    0.1370    0.1049    0.1012    0.0784    0.0419    0.0071    0.3182    0.1084    0.1030
-    0.0316    0.0147    0.1956    0.1018    0.0445    0.1762    0.2322    0.0323    0.1712
-    0.0377    0.2128    0.2287    0.0101    0.0640    0.1997    0.0114    0.0364    0.1993
-    0.0619    0.0404    0.2408    0.0479    0.2361    0.1824    0.0909    0.0161    0.0835</t>
-  </si>
-  <si>
     <t>Logarithmic Likelihood</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.3002
-    0.2882
-    0.3349
-    0.0122
-    0.0645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.0185    0.4317    0.5498
-    0.1734    0.0918    0.7348
-    0.4139    0.2458    0.3403
-    0.7502    0.2226    0.0272
-    0.3680    0.5092    0.1228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0585    0.4143    0.0619    0.2366    0.2287
-    0.1487    0.5325    0.0744    0.1570    0.0874
-    0.1031    0.4337    0.1213    0.1238    0.2181
-    0.1053    0.0463    0.2701    0.2976    0.2807
-    0.0099    0.4720    0.0554    0.0581    0.4045</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -241,6 +184,85 @@
   </si>
   <si>
     <t>X6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    0.0125
+    0.0231
+    0.0320
+    0.0042
+    0.1683
+    0.0164
+    0.0062
+    0.0019
+    0.0063
+    0.0049
+    0.0037
+    0.0068
+    0.2595
+    0.0126
+    0.0177
+    0.0214
+    0.0025
+    0.0487
+    0.3268
+    0.0021
+    0.0050
+    0.0173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6027    0.1526    0.2447
+    0.8666    0.0477    0.0856
+    0.6319    0.2749    0.0933
+    0.7401    0.2236    0.0363
+    0.0999    0.8909    0.0092
+    0.9520    0.0367    0.0114
+    0.5648    0.1881    0.2472
+    0.5728    0.0948    0.3324
+    0.6612    0.0886    0.2502
+    0.0776    0.7250    0.1974
+    0.2431    0.2281    0.5287
+    0.6784    0.0068    0.3148
+    0.5928    0.3706    0.0366
+    0.2132    0.4698    0.3170
+    0.6740    0.1251    0.2009
+    0.6135    0.3661    0.0205
+    0.3797    0.3017    0.3185
+    0.8955    0.0538    0.0506
+    0.9555    0.0295    0.0150
+    0.4112    0.2415    0.3472
+    0.6238    0.0686    0.3077
+    0.8053    0.1238    0.0709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0000
+    0.1609
+    0.2979
+    0.0506
+    0.0001
+    0.0124
+    0.3231
+    0.0001
+    0.0030
+    0.0006
+    0.1459
+    0.0047
+    0.0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.7114    0.2450    0.0436
+    0.4970    0.1456    0.3574
+    0.0252    0.0755    0.8992
+    0.0238    0.1265    0.8497
+    0.1779    0.1139    0.7082
+    0.0031    0.8661    0.1308
+    0.0164    0.7335    0.2501
+    0.9717    0.0202    0.0081
+    0.4669    0.2232    0.3100
+    0.0681    0.0128    0.9192
+    0.5906    0.4088    0.0006
+    0.4204    0.4814    0.0982
+    0.4205    0.4724    0.1072</t>
   </si>
 </sst>
 </file>
@@ -284,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,7 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,184 +634,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F7A4E-22DC-4CE3-A267-0125EE4E8AF3}">
-  <dimension ref="A4:O115"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="70.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F4" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-3686.7890160000002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-4204.8725940000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-3692.7176319999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="O12" s="2">
+        <v>-209.46769399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-211.137293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="2">
-        <v>-4253.9645490000003</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M11" s="4" t="s">
+      <c r="N14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O14" s="2">
+        <v>-192.05112199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="2">
+        <v>-209.83346700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="2">
-        <v>-210.934485</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-211.631269</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="2">
-        <v>-192.93811199999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="2">
-        <v>-212.21570600000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M16" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O16" s="2">
-        <v>-193.47661600000001</v>
+        <v>-193.99031199999999</v>
       </c>
     </row>
     <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O17" s="2">
-        <v>-191.220551</v>
+        <v>-191.392539</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">

--- a/HW7_Mark_Robinson_UG/results/data.xlsx
+++ b/HW7_Mark_Robinson_UG/results/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\ece483\HW7_Mark_Robinson_UG\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA675B1-36EA-4636-B76C-604E8558F85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC8B64-5638-44B8-8719-FBF2D98E7093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89741C47-2A8E-4687-8D30-2768D6135830}"/>
   </bookViews>
@@ -186,31 +186,6 @@
     <t>X6</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    0.0125
-    0.0231
-    0.0320
-    0.0042
-    0.1683
-    0.0164
-    0.0062
-    0.0019
-    0.0063
-    0.0049
-    0.0037
-    0.0068
-    0.2595
-    0.0126
-    0.0177
-    0.0214
-    0.0025
-    0.0487
-    0.3268
-    0.0021
-    0.0050
-    0.0173</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.6027    0.1526    0.2447
     0.8666    0.0477    0.0856
     0.6319    0.2749    0.0933
@@ -263,6 +238,30 @@
     0.5906    0.4088    0.0006
     0.4204    0.4814    0.0982
     0.4205    0.4724    0.1072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0125
+    0.0231
+    0.0320
+    0.0042
+    0.1683
+    0.0164
+    0.0062
+    0.0019
+    0.0063
+    0.0049
+    0.0037
+    0.0068
+    0.2595
+    0.0126
+    0.0177
+    0.0214
+    0.0025
+    0.0487
+    0.3268
+    0.0021
+    0.0050
+    0.0173</t>
   </si>
 </sst>
 </file>
@@ -634,101 +633,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F7A4E-22DC-4CE3-A267-0125EE4E8AF3}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A4:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="10.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="5" spans="6:15" ht="342.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-3686.7890160000002</v>
+      </c>
+    </row>
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="9" spans="6:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2">
-        <v>-3686.7890160000002</v>
-      </c>
-      <c r="F2" s="2">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="J9" s="2">
         <v>-4204.8725940000004</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
@@ -739,7 +735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M12" s="4" t="s">
         <v>40</v>
       </c>
@@ -750,7 +746,7 @@
         <v>-209.46769399999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M13" s="2" t="s">
         <v>45</v>
       </c>
@@ -761,7 +757,7 @@
         <v>-211.137293</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
         <v>46</v>
       </c>
@@ -772,7 +768,7 @@
         <v>-192.05112199999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M15" s="2" t="s">
         <v>47</v>
       </c>
@@ -783,7 +779,7 @@
         <v>-209.83346700000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
       <c r="M16" s="2" t="s">
         <v>49</v>
       </c>
@@ -806,212 +802,212 @@
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>0.30020000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>0.28820000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>0.33489999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>34</v>
       </c>
     </row>
